--- a/Знакомство с базами данных (лекции)/Lection_04/Бонусная задача (Лекция 4).xlsx
+++ b/Знакомство с базами данных (лекции)/Lection_04/Бонусная задача (Лекция 4).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDisk\РАБОЧЕЕ\IT\000_GB_4408_25-03-2023\Знакомство с базами данных (лекции)\Lection_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78070F70-269E-4441-A06C-E1389D545F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF110E6-FF38-46C5-8ADD-D2ACF078063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7129D13-117F-2E48-871A-A287849D6CCE}"/>
   </bookViews>
@@ -1435,7 +1435,7 @@
   <dimension ref="A1:AJ90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
